--- a/modeling_morphogenesis/GoodResults_Analysis_21973.xlsx
+++ b/modeling_morphogenesis/GoodResults_Analysis_21973.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/agnesresto/modeling_morphogenesis/modeling_morphogenesis/modeling_morphogenesis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B70A1F8B-CD13-9942-86E3-09F36A184220}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21B43522-115E-6D4E-8228-4F902D3B5920}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{90FE3F08-CEF5-3147-9735-A59393EED4FC}"/>
   </bookViews>
